--- a/simulation_data/one_step_algorithm/1s_error_level_7_percent_water_20.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_7_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.3294093722957</v>
+        <v>89.61195516640817</v>
       </c>
       <c r="D2" t="n">
-        <v>2.41137493848996</v>
+        <v>2.223766659371741</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.61419776030239</v>
+        <v>88.88280698078559</v>
       </c>
       <c r="D3" t="n">
-        <v>2.285148989170408</v>
+        <v>2.289664185044338</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.46750947167875</v>
+        <v>87.95430589358455</v>
       </c>
       <c r="D4" t="n">
-        <v>2.298950439434823</v>
+        <v>2.453939450557141</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.95532616460275</v>
+        <v>86.98140239821615</v>
       </c>
       <c r="D5" t="n">
-        <v>2.219493988690749</v>
+        <v>2.340426997448476</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.98871503023169</v>
+        <v>85.95072854636605</v>
       </c>
       <c r="D6" t="n">
-        <v>2.606240893736848</v>
+        <v>2.321046423904098</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.9437868207682</v>
+        <v>84.89190271525803</v>
       </c>
       <c r="D7" t="n">
-        <v>2.595204797610932</v>
+        <v>2.540960371251673</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.69261768936967</v>
+        <v>83.75070062294274</v>
       </c>
       <c r="D8" t="n">
-        <v>2.41920084771446</v>
+        <v>2.556573975830957</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.58165722969876</v>
+        <v>82.45719599675881</v>
       </c>
       <c r="D9" t="n">
-        <v>2.333121618857307</v>
+        <v>2.35289944498865</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.97205699988152</v>
+        <v>82.06792834384686</v>
       </c>
       <c r="D10" t="n">
-        <v>2.353712685205266</v>
+        <v>2.750928551002794</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.69266081288083</v>
+        <v>80.80124285331233</v>
       </c>
       <c r="D11" t="n">
-        <v>2.559146163907455</v>
+        <v>2.744562683668796</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.12386678776102</v>
+        <v>79.73121117557827</v>
       </c>
       <c r="D12" t="n">
-        <v>2.199911811524234</v>
+        <v>2.737724184558716</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.03712422175414</v>
+        <v>78.99523235766543</v>
       </c>
       <c r="D13" t="n">
-        <v>2.479093752284672</v>
+        <v>2.495482442083212</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.42082044160107</v>
+        <v>78.50772202527276</v>
       </c>
       <c r="D14" t="n">
-        <v>2.916133222148093</v>
+        <v>2.866269910362375</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.84519650412308</v>
+        <v>76.79065758438149</v>
       </c>
       <c r="D15" t="n">
-        <v>2.636518692950314</v>
+        <v>3.125085919278745</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.90218844530835</v>
+        <v>76.54375322457525</v>
       </c>
       <c r="D16" t="n">
-        <v>2.464559900991778</v>
+        <v>2.842546849976877</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.83501140353746</v>
+        <v>74.82995317565793</v>
       </c>
       <c r="D17" t="n">
-        <v>3.105398598927169</v>
+        <v>2.971553704366431</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.57925996750885</v>
+        <v>73.02195242388554</v>
       </c>
       <c r="D18" t="n">
-        <v>3.255087822428344</v>
+        <v>3.252386996431752</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.4803807187309</v>
+        <v>72.71962486533961</v>
       </c>
       <c r="D19" t="n">
-        <v>3.122882611389267</v>
+        <v>3.134987803095324</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.75948107966202</v>
+        <v>71.76707785882965</v>
       </c>
       <c r="D20" t="n">
-        <v>3.142933912244549</v>
+        <v>3.177687857313183</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.56582664764633</v>
+        <v>70.84347281123705</v>
       </c>
       <c r="D21" t="n">
-        <v>3.678288133454023</v>
+        <v>3.091558643555948</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.75823966667181</v>
+        <v>69.98436886643667</v>
       </c>
       <c r="D22" t="n">
-        <v>3.094675492620771</v>
+        <v>2.923215530794984</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.9428444565543</v>
+        <v>68.6164325477905</v>
       </c>
       <c r="D23" t="n">
-        <v>2.97122223824082</v>
+        <v>3.002595362331027</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.00722637867023</v>
+        <v>67.38029645825259</v>
       </c>
       <c r="D24" t="n">
-        <v>3.025244197408774</v>
+        <v>3.196256964564391</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.82890897351685</v>
+        <v>66.25884660621801</v>
       </c>
       <c r="D25" t="n">
-        <v>3.398794172756938</v>
+        <v>3.23415662902898</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.657107776663</v>
+        <v>66.14182621473502</v>
       </c>
       <c r="D26" t="n">
-        <v>3.430431558238906</v>
+        <v>3.102043774208803</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.78594930434336</v>
+        <v>64.930181685527</v>
       </c>
       <c r="D27" t="n">
-        <v>3.63323141024282</v>
+        <v>3.360123369888318</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.24957226327999</v>
+        <v>63.32213623944988</v>
       </c>
       <c r="D28" t="n">
-        <v>2.83354756929669</v>
+        <v>3.375485898984629</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.96055467950386</v>
+        <v>62.58006765079234</v>
       </c>
       <c r="D29" t="n">
-        <v>3.267695101057123</v>
+        <v>3.315913765941307</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.65592646502073</v>
+        <v>61.52743852790029</v>
       </c>
       <c r="D30" t="n">
-        <v>3.193895438920729</v>
+        <v>3.243822406009091</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.36852359241778</v>
+        <v>60.53958791884552</v>
       </c>
       <c r="D31" t="n">
-        <v>3.39169501572475</v>
+        <v>3.627660564223832</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.65894644306925</v>
+        <v>59.60410982614849</v>
       </c>
       <c r="D32" t="n">
-        <v>3.117904524453634</v>
+        <v>4.144640924631456</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.35434738537771</v>
+        <v>59.23105248935563</v>
       </c>
       <c r="D33" t="n">
-        <v>3.556530312849539</v>
+        <v>3.801745967046406</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.79590863674833</v>
+        <v>58.51873114751734</v>
       </c>
       <c r="D34" t="n">
-        <v>3.682149164943402</v>
+        <v>3.483992009139508</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.48211258140665</v>
+        <v>56.92763091185174</v>
       </c>
       <c r="D35" t="n">
-        <v>3.607447483543504</v>
+        <v>3.120107598181444</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.16392534908037</v>
+        <v>56.2538865040433</v>
       </c>
       <c r="D36" t="n">
-        <v>3.736387089958187</v>
+        <v>4.295002056404237</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.9636791654309</v>
+        <v>55.72660596713874</v>
       </c>
       <c r="D37" t="n">
-        <v>3.391211692695357</v>
+        <v>3.589556079363462</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.43487537002296</v>
+        <v>53.95860841551222</v>
       </c>
       <c r="D38" t="n">
-        <v>3.315883794761894</v>
+        <v>3.551269755030507</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.21405198343177</v>
+        <v>52.93807696194833</v>
       </c>
       <c r="D39" t="n">
-        <v>3.992971495556512</v>
+        <v>3.645031028651688</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.00346676788639</v>
+        <v>52.84777538182832</v>
       </c>
       <c r="D40" t="n">
-        <v>4.11225522093902</v>
+        <v>3.556326329155527</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.90968695886005</v>
+        <v>50.46903906860555</v>
       </c>
       <c r="D41" t="n">
-        <v>3.752132631718188</v>
+        <v>3.941684064758578</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.54452253450631</v>
+        <v>50.07542442766671</v>
       </c>
       <c r="D42" t="n">
-        <v>3.701214632828497</v>
+        <v>3.296719693772552</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.74580297746888</v>
+        <v>48.50246984523333</v>
       </c>
       <c r="D43" t="n">
-        <v>4.255240026397602</v>
+        <v>3.529813074905364</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.86575510084402</v>
+        <v>47.88099114359361</v>
       </c>
       <c r="D44" t="n">
-        <v>3.860027938234254</v>
+        <v>3.925122851981785</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.91609754979003</v>
+        <v>46.29438440719758</v>
       </c>
       <c r="D45" t="n">
-        <v>4.124736904167332</v>
+        <v>3.648214401888577</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.07382624534612</v>
+        <v>45.91721562507163</v>
       </c>
       <c r="D46" t="n">
-        <v>4.276542922986668</v>
+        <v>3.525006059043903</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.8948113366072</v>
+        <v>44.25389359907204</v>
       </c>
       <c r="D47" t="n">
-        <v>4.706706308253837</v>
+        <v>4.901003873726301</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.63378134680188</v>
+        <v>44.06029118228817</v>
       </c>
       <c r="D48" t="n">
-        <v>3.890024353204591</v>
+        <v>4.309709268798774</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.77712439634954</v>
+        <v>43.05068072621968</v>
       </c>
       <c r="D49" t="n">
-        <v>4.08901759929257</v>
+        <v>4.079861372454043</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.4828593978548</v>
+        <v>42.16135775626877</v>
       </c>
       <c r="D50" t="n">
-        <v>3.877913289923966</v>
+        <v>3.925060312313329</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.91191785977986</v>
+        <v>40.28533207719612</v>
       </c>
       <c r="D51" t="n">
-        <v>4.175882429100507</v>
+        <v>4.558343657349615</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.29393485541004</v>
+        <v>39.81117709069179</v>
       </c>
       <c r="D52" t="n">
-        <v>4.365638158581579</v>
+        <v>4.372735640816573</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.04541454836388</v>
+        <v>38.94747405291602</v>
       </c>
       <c r="D53" t="n">
-        <v>4.395161682381276</v>
+        <v>4.250800729149507</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.30196691659074</v>
+        <v>37.75892650511255</v>
       </c>
       <c r="D54" t="n">
-        <v>5.54675153607652</v>
+        <v>4.085162215690467</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.7427524168559</v>
+        <v>36.28125316864138</v>
       </c>
       <c r="D55" t="n">
-        <v>4.302892052093084</v>
+        <v>4.599077756278074</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.37790965931162</v>
+        <v>35.85596083235838</v>
       </c>
       <c r="D56" t="n">
-        <v>4.743925039248222</v>
+        <v>4.538635863985389</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.29474764804372</v>
+        <v>34.86364760745048</v>
       </c>
       <c r="D57" t="n">
-        <v>4.315321424699201</v>
+        <v>4.185538183981076</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.70212823341512</v>
+        <v>33.83986447306643</v>
       </c>
       <c r="D58" t="n">
-        <v>4.542282434401638</v>
+        <v>4.536923856719858</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.73304430064507</v>
+        <v>32.5123191831869</v>
       </c>
       <c r="D59" t="n">
-        <v>4.612333614311448</v>
+        <v>4.97990583793391</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.60735993858937</v>
+        <v>31.43722797665612</v>
       </c>
       <c r="D60" t="n">
-        <v>4.682131581409289</v>
+        <v>4.527885905177074</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.1820494596894</v>
+        <v>31.25478774124948</v>
       </c>
       <c r="D61" t="n">
-        <v>5.052239618870198</v>
+        <v>4.930537492331839</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.19957887176923</v>
+        <v>29.82836795852547</v>
       </c>
       <c r="D62" t="n">
-        <v>4.112717055738031</v>
+        <v>4.739635680818414</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.19983479504324</v>
+        <v>28.64605039987281</v>
       </c>
       <c r="D63" t="n">
-        <v>4.526580001510998</v>
+        <v>4.394799027888213</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.81909380662223</v>
+        <v>27.67864883323604</v>
       </c>
       <c r="D64" t="n">
-        <v>4.299326151957716</v>
+        <v>4.941432904779445</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.03493157501572</v>
+        <v>26.13235261101126</v>
       </c>
       <c r="D65" t="n">
-        <v>5.920728935881383</v>
+        <v>4.594045146453564</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.98608226688158</v>
+        <v>25.07225622550013</v>
       </c>
       <c r="D66" t="n">
-        <v>5.129850103985825</v>
+        <v>4.561234549063869</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.79107424206764</v>
+        <v>24.91044454246404</v>
       </c>
       <c r="D67" t="n">
-        <v>5.344134876274406</v>
+        <v>4.591346094368272</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.92197024959031</v>
+        <v>23.74582924347325</v>
       </c>
       <c r="D68" t="n">
-        <v>5.407703949735005</v>
+        <v>4.749366977747451</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.26879679640934</v>
+        <v>22.57728015112011</v>
       </c>
       <c r="D69" t="n">
-        <v>4.652674965336812</v>
+        <v>5.609476516592605</v>
       </c>
     </row>
   </sheetData>
